--- a/ListasDatos/Avila Coronado Julieta_2021.xlsx
+++ b/ListasDatos/Avila Coronado Julieta_2021.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="1409">
   <si>
     <t>NC</t>
   </si>
@@ -339,6 +339,9 @@
     <t>buenojoso1951@gmail.com</t>
   </si>
   <si>
+    <t>cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>misaelcocotle3@gmail.com</t>
   </si>
   <si>
@@ -444,6 +447,9 @@
     <t>2721546150</t>
   </si>
   <si>
+    <t>2721079631</t>
+  </si>
+  <si>
     <t>2451221093</t>
   </si>
   <si>
@@ -576,6 +582,9 @@
     <t>JOSÉ SOCORRO BUENO GARCÍA</t>
   </si>
   <si>
+    <t>FRANCISCO JAVIER CORTÉZ LEYNES</t>
+  </si>
+  <si>
     <t>ANDRES COCOTLE MARTINEZ</t>
   </si>
   <si>
@@ -672,6 +681,9 @@
     <t>bernabejosealfredo718@gmail.com</t>
   </si>
   <si>
+    <t>Cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>Bernardino colotl@gmail.com</t>
   </si>
   <si>
@@ -1749,6 +1761,9 @@
     <t>adriana_arelycg@outlook.com</t>
   </si>
   <si>
+    <t>aisha.naomi05@hotmail.com</t>
+  </si>
+  <si>
     <t>arant0610@gmail.com</t>
   </si>
   <si>
@@ -1854,6 +1869,9 @@
     <t>2722088572</t>
   </si>
   <si>
+    <t>2721538846</t>
+  </si>
+  <si>
     <t>2721829816</t>
   </si>
   <si>
@@ -2001,7 +2019,7 @@
     <t>FERNANDO ELOY BUSTOS HERNÁNDEZ</t>
   </si>
   <si>
-    <t>KARINA JAQUELINE LEAL RIVERA CANSECO DIAZ LEAL RIVERA</t>
+    <t>KARINA JAQUELINE LEAL RIVERA</t>
   </si>
   <si>
     <t>MARIA ELENA GONZALEZ TINOCO</t>
@@ -2010,6 +2028,9 @@
     <t>JOSÉ ADRIÁN CRUZ BERISTAIN</t>
   </si>
   <si>
+    <t>JACINTO CRUZ MARTÍNEZ</t>
+  </si>
+  <si>
     <t>GREGORIO ARROYO MENDOZA</t>
   </si>
   <si>
@@ -2115,9 +2136,6 @@
     <t>lobatodaniel007@gmail.com</t>
   </si>
   <si>
-    <t>Kakakabs</t>
-  </si>
-  <si>
     <t>bonylopez119@gmail.com</t>
   </si>
   <si>
@@ -2172,6 +2190,9 @@
     <t>2722581860</t>
   </si>
   <si>
+    <t>2721757221</t>
+  </si>
+  <si>
     <t>2727221943</t>
   </si>
   <si>
@@ -3270,6 +3291,9 @@
     <t>santilop493@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>griselserrano11218@gmail.com</t>
   </si>
   <si>
@@ -3372,6 +3396,9 @@
     <t>2722805311</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721633478</t>
   </si>
   <si>
@@ -3522,6 +3549,9 @@
     <t>AGUSTIN MARTINEZ CRISTOBAL</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>FERNANDO JAIR MALDONADO GONZÁLEZ</t>
   </si>
   <si>
@@ -3612,6 +3642,9 @@
     <t>Santilop493@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>ferjair71@gmail.com</t>
   </si>
   <si>
@@ -3687,6 +3720,9 @@
     <t>2722956004</t>
   </si>
   <si>
+    <t>9921059452</t>
+  </si>
+  <si>
     <t>2721397474</t>
   </si>
   <si>
@@ -3846,6 +3882,9 @@
     <t>gc050405@gmail.com</t>
   </si>
   <si>
+    <t>cesarcuevasc3@gmail.com</t>
+  </si>
+  <si>
     <t>isyssmonserrathc@gmail.com</t>
   </si>
   <si>
@@ -3918,6 +3957,9 @@
     <t>2721690558</t>
   </si>
   <si>
+    <t>2722848082</t>
+  </si>
+  <si>
     <t>2721054944</t>
   </si>
   <si>
@@ -4021,6 +4063,9 @@
   </si>
   <si>
     <t>GERARDO CORTÉS VILLASCAN</t>
+  </si>
+  <si>
+    <t>GERARDO CUEVAS MACUIXTLE</t>
   </si>
   <si>
     <t>JANETH PIMENTEL DOMINGUEZ</t>
@@ -4622,16 +4667,16 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4651,19 +4696,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4683,19 +4728,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4715,16 +4760,16 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4744,16 +4789,16 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4769,6 +4814,21 @@
       <c r="D7" t="s">
         <v>73</v>
       </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -4784,22 +4844,22 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4816,22 +4876,22 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4848,19 +4908,19 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4877,22 +4937,22 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4909,22 +4969,22 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4941,22 +5001,22 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4973,16 +5033,16 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4999,19 +5059,19 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5028,22 +5088,22 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5060,22 +5120,22 @@
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5092,19 +5152,19 @@
         <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5121,22 +5181,22 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5153,16 +5213,16 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5179,22 +5239,22 @@
         <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5211,19 +5271,19 @@
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5240,22 +5300,22 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5272,16 +5332,16 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5298,19 +5358,19 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5327,19 +5387,19 @@
         <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5356,19 +5416,19 @@
         <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5385,19 +5445,19 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5414,19 +5474,19 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5443,13 +5503,13 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5466,19 +5526,19 @@
         <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5495,22 +5555,22 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5527,22 +5587,22 @@
         <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5559,19 +5619,19 @@
         <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5588,19 +5648,19 @@
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5617,22 +5677,22 @@
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5649,22 +5709,22 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5726,31 +5786,31 @@
         <v>20330051920039</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5761,25 +5821,25 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5787,28 +5847,28 @@
         <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5819,28 +5879,28 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="J5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5848,31 +5908,31 @@
         <v>20330051920044</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H6" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I6" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5880,31 +5940,31 @@
         <v>20330051920045</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5912,31 +5972,31 @@
         <v>20330051920046</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5944,31 +6004,31 @@
         <v>20330051920048</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5982,22 +6042,22 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="J10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6005,31 +6065,31 @@
         <v>20330051920051</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="I11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6037,28 +6097,28 @@
         <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H12" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I12" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J12" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6069,25 +6129,25 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J13" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6098,28 +6158,28 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H14" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J14" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6133,25 +6193,25 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H15" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J15" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6165,25 +6225,25 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G16" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I16" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J16" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6194,28 +6254,28 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E17" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H17" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="I17" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="J17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6223,25 +6283,25 @@
         <v>20330051920095</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J18" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6252,28 +6312,28 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E19" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I19" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J19" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6284,28 +6344,28 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E20" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F20" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J20" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6313,28 +6373,28 @@
         <v>20330051920099</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F21" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G21" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="I21" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J21" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6342,28 +6402,28 @@
         <v>20330051920366</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H22" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="I22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J22" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6371,31 +6431,31 @@
         <v>20330051920367</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I23" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6403,31 +6463,31 @@
         <v>20330051920100</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E24" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G24" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H24" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I24" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J24" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6435,31 +6495,31 @@
         <v>20330051920101</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G25" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="J25" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6467,28 +6527,28 @@
         <v>20330051920102</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E26" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G26" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I26" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6496,28 +6556,28 @@
         <v>20330051920104</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F27" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G27" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J27" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6531,25 +6591,25 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E28" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F28" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G28" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H28" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I28" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J28" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6557,28 +6617,28 @@
         <v>20330051920107</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F29" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G29" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="J29" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6586,28 +6646,28 @@
         <v>20330051920109</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F30" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H30" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I30" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="J30" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6615,28 +6675,28 @@
         <v>20330051920111</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E31" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F31" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J31" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6644,31 +6704,31 @@
         <v>20330051920112</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H32" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I32" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J32" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6682,25 +6742,25 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F33" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G33" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I33" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J33" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6762,31 +6822,31 @@
         <v>20330051920368</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="H2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="I2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="J2" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6797,28 +6857,28 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H3" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="I3" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="J3" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6826,25 +6886,25 @@
         <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F4" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="G4" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="H4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6852,31 +6912,31 @@
         <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G5" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H5" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="I5" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="J5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6884,31 +6944,31 @@
         <v>20330051920369</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D6" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E6" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G6" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H6" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="I6" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J6" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6916,28 +6976,28 @@
         <v>20330051920160</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="J7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6945,28 +7005,28 @@
         <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F8" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G8" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="H8" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="I8" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6974,28 +7034,28 @@
         <v>20330051920162</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E9" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H9" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="I9" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="J9" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7003,31 +7063,31 @@
         <v>20330051920163</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E10" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F10" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G10" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="I10" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7035,13 +7095,28 @@
         <v>20330051920164</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>540</v>
+        <v>544</v>
+      </c>
+      <c r="E11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G11" t="s">
+        <v>616</v>
+      </c>
+      <c r="H11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J11" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7049,31 +7124,31 @@
         <v>20330051920370</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E12" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G12" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H12" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="I12" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="J12" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7084,28 +7159,28 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E13" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F13" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G13" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H13" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="I13" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="J13" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7113,31 +7188,31 @@
         <v>20330051920165</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D14" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E14" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F14" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G14" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="H14" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="I14" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="J14" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7148,25 +7223,25 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D15" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E15" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="F15" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H15" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="I15" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="J15" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7174,28 +7249,28 @@
         <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C16" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F16" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H16" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="I16" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="J16" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7203,31 +7278,31 @@
         <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E17" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F17" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G17" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H17" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="I17" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="J17" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7235,28 +7310,28 @@
         <v>20330051920371</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C18" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D18" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E18" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="G18" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H18" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="J18" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7264,28 +7339,28 @@
         <v>20330051920171</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E19" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F19" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="I19" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="J19" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7293,31 +7368,28 @@
         <v>20330051920172</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C20" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E20" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F20" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G20" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="H20" t="s">
-        <v>671</v>
-      </c>
-      <c r="I20" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="J20" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7325,31 +7397,31 @@
         <v>20330051920173</v>
       </c>
       <c r="B21" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E21" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G21" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="H21" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="I21" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="J21" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7357,31 +7429,31 @@
         <v>20330051920174</v>
       </c>
       <c r="B22" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F22" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G22" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="H22" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="I22" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J22" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7389,28 +7461,28 @@
         <v>20330051920175</v>
       </c>
       <c r="B23" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C23" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D23" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E23" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F23" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G23" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="H23" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="I23" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7418,31 +7490,31 @@
         <v>20330051920306</v>
       </c>
       <c r="B24" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E24" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F24" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G24" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="H24" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="I24" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="J24" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7450,31 +7522,31 @@
         <v>20330051920177</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D25" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E25" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F25" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G25" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H25" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="I25" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="J25" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7482,25 +7554,25 @@
         <v>20330051920178</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D26" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E26" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F26" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G26" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="H26" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7511,25 +7583,25 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D27" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E27" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F27" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H27" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="I27" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="J27" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7537,31 +7609,31 @@
         <v>20330051920180</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E28" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F28" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G28" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="H28" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="I28" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="J28" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7569,31 +7641,31 @@
         <v>20330051920373</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E29" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F29" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G29" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="H29" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="I29" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="J29" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7601,28 +7673,28 @@
         <v>20330051920254</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E30" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F30" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="G30" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H30" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="J30" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7630,31 +7702,31 @@
         <v>20330051920181</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E31" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F31" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="G31" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H31" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="I31" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="J31" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7662,31 +7734,31 @@
         <v>20330051920393</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C32" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D32" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E32" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F32" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G32" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H32" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="I32" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="J32" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7697,25 +7769,25 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D33" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E33" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F33" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H33" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="I33" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="J33" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7726,28 +7798,28 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D34" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E34" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F34" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G34" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="H34" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="I34" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="J34" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7758,28 +7830,28 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D35" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E35" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G35" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H35" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="I35" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="J35" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7793,19 +7865,19 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E36" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F36" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H36" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="J36" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -7813,28 +7885,28 @@
         <v>20330051920388</v>
       </c>
       <c r="B37" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D37" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E37" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="H37" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="I37" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="J37" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -7896,28 +7968,28 @@
         <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D2" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="E2" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="F2" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="H2" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I2" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="J2" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7925,28 +7997,28 @@
         <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="E3" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="F3" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="G3" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="H3" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="J3" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7954,28 +8026,28 @@
         <v>20330051920221</v>
       </c>
       <c r="B4" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C4" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D4" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="E4" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="F4" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="H4" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="I4" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="J4" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7989,22 +8061,22 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="E5" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="F5" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="H5" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="I5" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="J5" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8012,31 +8084,31 @@
         <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C6" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="D6" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="E6" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="F6" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="G6" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="H6" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="I6" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="J6" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8044,28 +8116,28 @@
         <v>20330051920223</v>
       </c>
       <c r="B7" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="E7" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="F7" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="H7" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="I7" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="J7" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8073,31 +8145,31 @@
         <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="E8" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="F8" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="G8" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="H8" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="I8" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="J8" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8105,28 +8177,28 @@
         <v>20330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="D9" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="E9" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="F9" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="G9" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="H9" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="J9" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8137,25 +8209,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D10" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="E10" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="F10" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="H10" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="I10" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="J10" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8166,25 +8238,25 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="E11" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="F11" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="G11" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="H11" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="J11" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8195,28 +8267,28 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="D12" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="E12" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="F12" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="G12" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="H12" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="I12" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="J12" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8227,28 +8299,28 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D13" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E13" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="F13" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="G13" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="H13" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="I13" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="J13" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8262,25 +8334,25 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="E14" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="F14" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="G14" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="H14" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="I14" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="J14" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8291,25 +8363,25 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D15" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E15" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="F15" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="G15" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="H15" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="J15" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8317,31 +8389,31 @@
         <v>20330051920231</v>
       </c>
       <c r="B16" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="C16" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="D16" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="E16" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="F16" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="G16" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="H16" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="I16" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="J16" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8349,31 +8421,31 @@
         <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D17" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E17" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="F17" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="G17" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="H17" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="I17" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="J17" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8381,31 +8453,31 @@
         <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C18" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D18" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="E18" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="F18" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="G18" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="H18" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="I18" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="J18" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8413,31 +8485,31 @@
         <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="C19" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="D19" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E19" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="F19" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="G19" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="H19" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="I19" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="J19" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8445,31 +8517,31 @@
         <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="C20" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="D20" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="E20" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="F20" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="G20" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="H20" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="I20" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="J20" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8480,28 +8552,28 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="D21" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="E21" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="F21" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="G21" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H21" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="I21" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="J21" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8509,28 +8581,28 @@
         <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="E22" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="F22" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="H22" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="I22" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="J22" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8538,31 +8610,31 @@
         <v>20330051920238</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="E23" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="F23" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="G23" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="H23" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="I23" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="J23" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8570,31 +8642,31 @@
         <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="E24" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="F24" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="G24" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="H24" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="I24" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="J24" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8602,31 +8674,31 @@
         <v>20330051920240</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E25" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F25" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="G25" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="H25" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="I25" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="J25" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8634,31 +8706,31 @@
         <v>20330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D26" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="E26" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="F26" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G26" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="H26" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="I26" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="J26" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8666,31 +8738,31 @@
         <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E27" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="F27" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="G27" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="H27" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="I27" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="J27" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8698,25 +8770,25 @@
         <v>20330051920244</v>
       </c>
       <c r="B28" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C28" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D28" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="E28" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="F28" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="H28" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="J28" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8724,31 +8796,31 @@
         <v>20330051920245</v>
       </c>
       <c r="B29" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="E29" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="F29" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="G29" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H29" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="I29" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="J29" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8756,31 +8828,31 @@
         <v>20330051920247</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="E30" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="F30" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="G30" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="H30" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="I30" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="J30" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8791,28 +8863,28 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="D31" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="E31" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="F31" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="G31" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="H31" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="I31" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="J31" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8823,28 +8895,28 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="D32" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="E32" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="F32" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="G32" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="H32" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="I32" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="J32" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -8858,25 +8930,25 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="E33" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="F33" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="G33" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="H33" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="I33" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="J33" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -8884,28 +8956,28 @@
         <v>20330051920251</v>
       </c>
       <c r="B34" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C34" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D34" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E34" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="F34" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="H34" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="I34" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="J34" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -8913,31 +8985,31 @@
         <v>20330051920252</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E35" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="F35" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="G35" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="H35" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="I35" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="J35" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -8945,28 +9017,28 @@
         <v>20330051920253</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="D36" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E36" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="F36" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="G36" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="H36" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="J36" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8977,25 +9049,25 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D37" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="E37" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="F37" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="H37" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="I37" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="J37" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -9003,31 +9075,31 @@
         <v>20330051920257</v>
       </c>
       <c r="B38" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="C38" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D38" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E38" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="F38" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="G38" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="H38" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="I38" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="J38" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -9041,19 +9113,19 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="E39" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="F39" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="G39" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="H39" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -9067,19 +9139,19 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E40" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="F40" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="G40" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="H40" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -9141,28 +9213,28 @@
         <v>20330051920283</v>
       </c>
       <c r="B2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="E2" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F2" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="H2" t="s">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="I2" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="J2" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9176,25 +9248,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="E3" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="G3" t="s">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="H3" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
       <c r="I3" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="J3" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9202,28 +9274,28 @@
         <v>20330051920285</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="E4" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="G4" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="H4" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="I4" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9231,31 +9303,31 @@
         <v>20330051920286</v>
       </c>
       <c r="B5" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="C5" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="D5" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="E5" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="G5" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="H5" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="I5" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
       <c r="J5" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9263,31 +9335,31 @@
         <v>20330051920390</v>
       </c>
       <c r="B6" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="E6" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F6" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="G6" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="H6" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
       <c r="I6" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="J6" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9295,31 +9367,31 @@
         <v>20330051920287</v>
       </c>
       <c r="B7" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="E7" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F7" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="G7" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="H7" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="I7" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="J7" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9327,31 +9399,31 @@
         <v>20330051920288</v>
       </c>
       <c r="B8" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C8" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="D8" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="E8" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="F8" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="G8" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="H8" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="I8" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="J8" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9359,31 +9431,31 @@
         <v>20330051920290</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="D9" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="E9" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F9" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="G9" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="H9" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="I9" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="J9" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9394,28 +9466,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="D10" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="E10" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="F10" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="G10" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="H10" t="s">
-        <v>1156</v>
+        <v>1165</v>
       </c>
       <c r="I10" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="J10" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9423,22 +9495,22 @@
         <v>20330051920293</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="E11" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="F11" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="H11" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9446,31 +9518,31 @@
         <v>20330051920294</v>
       </c>
       <c r="B12" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C12" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="D12" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="E12" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F12" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="G12" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="H12" t="s">
-        <v>1158</v>
+        <v>1167</v>
       </c>
       <c r="I12" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="J12" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9481,28 +9553,28 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D13" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="E13" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="F13" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="G13" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="H13" t="s">
-        <v>1159</v>
+        <v>1168</v>
       </c>
       <c r="I13" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="J13" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9513,28 +9585,28 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D14" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="E14" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="F14" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="G14" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="H14" t="s">
-        <v>1160</v>
+        <v>1169</v>
       </c>
       <c r="I14" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="J14" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9545,28 +9617,28 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="D15" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="E15" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="F15" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="G15" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="H15" t="s">
-        <v>1161</v>
+        <v>1170</v>
       </c>
       <c r="I15" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="J15" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9577,25 +9649,25 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="E16" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="H16" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="I16" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
       <c r="J16" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9603,25 +9675,25 @@
         <v>20330051920298</v>
       </c>
       <c r="B17" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="E17" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="H17" t="s">
-        <v>1163</v>
+        <v>1172</v>
       </c>
       <c r="J17" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9632,25 +9704,25 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="D18" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="E18" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="F18" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="H18" t="s">
-        <v>1164</v>
+        <v>1173</v>
       </c>
       <c r="I18" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="J18" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9658,31 +9730,31 @@
         <v>20330051920300</v>
       </c>
       <c r="B19" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="C19" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="D19" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="E19" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="F19" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="G19" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="H19" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="I19" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="J19" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9690,31 +9762,31 @@
         <v>20330051920301</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="E20" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="F20" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="G20" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="H20" t="s">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="I20" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="J20" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9722,13 +9794,31 @@
         <v>20330051920302</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>1051</v>
+        <v>1058</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9736,31 +9826,31 @@
         <v>20330051920303</v>
       </c>
       <c r="B22" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="C22" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="D22" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="E22" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="F22" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="G22" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="H22" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="I22" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="J22" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9768,31 +9858,31 @@
         <v>19330061460416</v>
       </c>
       <c r="B23" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="C23" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="D23" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="E23" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="F23" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="G23" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="H23" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="I23" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="J23" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9800,31 +9890,31 @@
         <v>19330051920208</v>
       </c>
       <c r="B24" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="E24" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="F24" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="G24" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="H24" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="I24" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="J24" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9832,31 +9922,31 @@
         <v>20330051920304</v>
       </c>
       <c r="B25" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C25" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="D25" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="E25" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="F25" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="G25" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="H25" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="I25" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="J25" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9873,22 +9963,22 @@
         <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="F26" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="G26" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="H26" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I26" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="J26" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9896,25 +9986,25 @@
         <v>20330051920308</v>
       </c>
       <c r="B27" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="E27" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="F27" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="H27" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="J27" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9922,31 +10012,31 @@
         <v>20330051920309</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C28" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="D28" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="E28" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="F28" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="G28" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="H28" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="I28" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="J28" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -9960,25 +10050,25 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="E29" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="F29" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="G29" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="H29" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="I29" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="J29" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -9986,28 +10076,28 @@
         <v>20330051920311</v>
       </c>
       <c r="B30" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="C30" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="D30" t="s">
         <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="F30" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="H30" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="I30" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="J30" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10015,31 +10105,31 @@
         <v>20330051920216</v>
       </c>
       <c r="B31" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="C31" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="D31" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="E31" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="F31" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="G31" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="H31" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="I31" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="J31" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10050,22 +10140,22 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D32" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="E32" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="F32" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="H32" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="J32" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10076,28 +10166,28 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="D33" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="E33" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="F33" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="G33" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
       <c r="H33" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="I33" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="J33" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -10111,25 +10201,25 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="E34" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="F34" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="G34" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="H34" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="I34" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="J34" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -10137,31 +10227,31 @@
         <v>20330051920314</v>
       </c>
       <c r="B35" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="C35" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="D35" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E35" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="F35" t="s">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="G35" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="H35" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="I35" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="J35" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -10172,28 +10262,28 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="D36" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="E36" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="G36" t="s">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="H36" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="I36" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="J36" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -10255,28 +10345,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="C2" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="D2" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="E2" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="F2" t="s">
-        <v>1295</v>
+        <v>1308</v>
       </c>
       <c r="H2" t="s">
-        <v>1330</v>
+        <v>1344</v>
       </c>
       <c r="I2" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
       <c r="J2" t="s">
-        <v>1375</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10287,25 +10377,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="D3" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="E3" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="F3" t="s">
-        <v>1296</v>
+        <v>1309</v>
       </c>
       <c r="H3" t="s">
-        <v>1331</v>
+        <v>1345</v>
       </c>
       <c r="I3" t="s">
-        <v>1355</v>
+        <v>1370</v>
       </c>
       <c r="J3" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10313,31 +10403,31 @@
         <v>20330051920263</v>
       </c>
       <c r="B4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C4" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
       <c r="D4" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="E4" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="F4" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
       <c r="G4" t="s">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="H4" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="I4" t="s">
-        <v>1356</v>
+        <v>1371</v>
       </c>
       <c r="J4" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10348,28 +10438,28 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="D5" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="E5" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="F5" t="s">
-        <v>1298</v>
+        <v>1311</v>
       </c>
       <c r="G5" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="H5" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
       <c r="I5" t="s">
-        <v>1357</v>
+        <v>1372</v>
       </c>
       <c r="J5" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10377,13 +10467,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="C6" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10391,31 +10499,31 @@
         <v>20330051920341</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="D7" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="E7" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
       <c r="F7" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="G7" t="s">
-        <v>1321</v>
+        <v>1335</v>
       </c>
       <c r="H7" t="s">
-        <v>1334</v>
+        <v>1349</v>
       </c>
       <c r="I7" t="s">
-        <v>1358</v>
+        <v>1373</v>
       </c>
       <c r="J7" t="s">
-        <v>1321</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10423,28 +10531,28 @@
         <v>20330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="D8" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="E8" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="F8" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="H8" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="I8" t="s">
-        <v>1359</v>
+        <v>1374</v>
       </c>
       <c r="J8" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10452,31 +10560,31 @@
         <v>20330051920343</v>
       </c>
       <c r="B9" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="E9" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
       <c r="F9" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="G9" t="s">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="H9" t="s">
-        <v>1336</v>
+        <v>1351</v>
       </c>
       <c r="I9" t="s">
-        <v>1360</v>
+        <v>1375</v>
       </c>
       <c r="J9" t="s">
-        <v>1380</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10487,25 +10595,25 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="D10" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="E10" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
       <c r="F10" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="H10" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="I10" t="s">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="J10" t="s">
-        <v>1381</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10516,25 +10624,25 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
       <c r="F11" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="H11" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="I11" t="s">
-        <v>1362</v>
+        <v>1377</v>
       </c>
       <c r="J11" t="s">
-        <v>1382</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10545,28 +10653,28 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="D12" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="E12" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
       <c r="F12" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="G12" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="H12" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="I12" t="s">
-        <v>1363</v>
+        <v>1378</v>
       </c>
       <c r="J12" t="s">
-        <v>1383</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10577,22 +10685,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="E13" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
       <c r="F13" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="G13" t="s">
-        <v>1323</v>
+        <v>1337</v>
       </c>
       <c r="H13" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10603,28 +10711,28 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E14" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="F14" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="G14" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="H14" t="s">
-        <v>1341</v>
+        <v>1356</v>
       </c>
       <c r="I14" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="J14" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10638,22 +10746,22 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E15" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
       <c r="F15" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="H15" t="s">
-        <v>1342</v>
+        <v>1357</v>
       </c>
       <c r="I15" t="s">
-        <v>1364</v>
+        <v>1379</v>
       </c>
       <c r="J15" t="s">
-        <v>1384</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10661,31 +10769,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B16" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
       <c r="C16" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E16" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
       <c r="F16" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="G16" t="s">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="H16" t="s">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="I16" t="s">
-        <v>1365</v>
+        <v>1380</v>
       </c>
       <c r="J16" t="s">
-        <v>1385</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10693,28 +10801,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B17" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="E17" t="s">
-        <v>1285</v>
+        <v>1298</v>
       </c>
       <c r="F17" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="H17" t="s">
-        <v>1344</v>
+        <v>1359</v>
       </c>
       <c r="I17" t="s">
-        <v>1285</v>
+        <v>1298</v>
       </c>
       <c r="J17" t="s">
-        <v>1386</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10728,25 +10836,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="E18" t="s">
-        <v>1286</v>
+        <v>1299</v>
       </c>
       <c r="F18" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="G18" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="H18" t="s">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="I18" t="s">
-        <v>1366</v>
+        <v>1381</v>
       </c>
       <c r="J18" t="s">
-        <v>1387</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10754,31 +10862,31 @@
         <v>20330051920352</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="E19" t="s">
-        <v>1287</v>
+        <v>1300</v>
       </c>
       <c r="F19" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
       <c r="G19" t="s">
-        <v>1325</v>
+        <v>1339</v>
       </c>
       <c r="H19" t="s">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="I19" t="s">
-        <v>1367</v>
+        <v>1382</v>
       </c>
       <c r="J19" t="s">
-        <v>1388</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10792,25 +10900,25 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="E20" t="s">
-        <v>1288</v>
+        <v>1301</v>
       </c>
       <c r="F20" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="G20" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
       <c r="H20" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="I20" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="J20" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10818,31 +10926,31 @@
         <v>20330051920354</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="E21" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
       <c r="F21" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="G21" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="H21" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="I21" t="s">
-        <v>1369</v>
+        <v>1384</v>
       </c>
       <c r="J21" t="s">
-        <v>1389</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10850,31 +10958,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B22" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E22" t="s">
-        <v>1290</v>
+        <v>1303</v>
       </c>
       <c r="F22" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="G22" t="s">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="H22" t="s">
-        <v>1349</v>
+        <v>1364</v>
       </c>
       <c r="I22" t="s">
-        <v>1370</v>
+        <v>1385</v>
       </c>
       <c r="J22" t="s">
-        <v>1390</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10882,31 +10990,31 @@
         <v>20330051920382</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="E23" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
       <c r="F23" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="G23" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="H23" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="I23" t="s">
-        <v>1371</v>
+        <v>1386</v>
       </c>
       <c r="J23" t="s">
-        <v>1391</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10914,28 +11022,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B24" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="C24" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="D24" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="E24" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
       <c r="F24" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="H24" t="s">
-        <v>1351</v>
+        <v>1366</v>
       </c>
       <c r="I24" t="s">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="J24" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10943,31 +11051,31 @@
         <v>20330051920357</v>
       </c>
       <c r="B25" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="C25" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
       <c r="F25" t="s">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="G25" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="H25" t="s">
-        <v>1352</v>
+        <v>1367</v>
       </c>
       <c r="I25" t="s">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="J25" t="s">
-        <v>1317</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10978,28 +11086,28 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="E26" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
       <c r="F26" t="s">
-        <v>1318</v>
+        <v>1332</v>
       </c>
       <c r="G26" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="H26" t="s">
-        <v>1353</v>
+        <v>1368</v>
       </c>
       <c r="I26" t="s">
-        <v>1374</v>
+        <v>1389</v>
       </c>
       <c r="J26" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
